--- a/change log.xlsx
+++ b/change log.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinepark/Downloads/NYPL-clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinepark/repos/CS513-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C44D07A-0D8D-854C-AC04-C41E80D11521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F1392-6192-E440-922A-DA4413A5807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30520" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45000" yWindow="2940" windowWidth="30520" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>File name</t>
   </si>
@@ -108,16 +107,19 @@
     <t>isSoup</t>
   </si>
   <si>
-    <t>Checked against list of valid soup types to check if row is a soup</t>
-  </si>
-  <si>
-    <t>To clearly identify which menu items are soups, enabling precise filtering and analysis of soup-related trends over time.</t>
-  </si>
-  <si>
     <t>dropped rows where normalized_dish_name = null</t>
   </si>
   <si>
     <t>ensures that only valid, identifiable dish names are analyzed</t>
+  </si>
+  <si>
+    <t>Use soup_terms array to further check if any other dishes are soups</t>
+  </si>
+  <si>
+    <t>To improve the classification of dishes that might have been previously overlooked as soups</t>
+  </si>
+  <si>
+    <t>** classified 4920 additional dishes as souops</t>
   </si>
 </sst>
 </file>
@@ -771,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +787,7 @@
     <col min="5" max="5" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -819,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -836,7 +838,7 @@
         <v>411704</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -853,7 +855,7 @@
         <v>9045</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -870,7 +872,7 @@
         <v>80076</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -887,7 +889,7 @@
         <v>200953</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -904,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -912,16 +914,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -929,13 +931,17 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>9901</v>
+        <f>9901-4981</f>
+        <v>4920</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/change log.xlsx
+++ b/change log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinepark/repos/CS513-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04F1392-6192-E440-922A-DA4413A5807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51AF35-ED8D-CE42-B637-075241587669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45000" yWindow="2940" windowWidth="30520" windowHeight="13780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>File name</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>** classified 4920 additional dishes as souops</t>
+  </si>
+  <si>
+    <t>drop any values that could not be parsed as a data in pandas</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,6 +947,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
